--- a/Code/Results/Cases/Case_9_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019508497697767</v>
+        <v>1.018398996903231</v>
       </c>
       <c r="D2">
-        <v>1.039618030331772</v>
+        <v>1.037731372755398</v>
       </c>
       <c r="E2">
-        <v>1.033542904754388</v>
+        <v>1.032518006046127</v>
       </c>
       <c r="F2">
-        <v>1.044922437884652</v>
+        <v>1.043723197300365</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05305996089247</v>
+        <v>1.052213962304422</v>
       </c>
       <c r="J2">
-        <v>1.041120968073517</v>
+        <v>1.040042986238049</v>
       </c>
       <c r="K2">
-        <v>1.05055169454029</v>
+        <v>1.048688933085537</v>
       </c>
       <c r="L2">
-        <v>1.044553905353937</v>
+        <v>1.043542165786587</v>
       </c>
       <c r="M2">
-        <v>1.055789493536435</v>
+        <v>1.054605238228477</v>
       </c>
       <c r="N2">
-        <v>1.017490678766373</v>
+        <v>1.017735787469872</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052725930710658</v>
+        <v>1.051788687002633</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046814665562227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045506240657858</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024918647652048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022682275490027</v>
+        <v>1.021473159319765</v>
       </c>
       <c r="D3">
-        <v>1.041768747362315</v>
+        <v>1.039744382157104</v>
       </c>
       <c r="E3">
-        <v>1.035961170854192</v>
+        <v>1.034845411333247</v>
       </c>
       <c r="F3">
-        <v>1.047240805885193</v>
+        <v>1.04594683587347</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053752637718798</v>
+        <v>1.052836976054294</v>
       </c>
       <c r="J3">
-        <v>1.042573133726118</v>
+        <v>1.041395082088435</v>
       </c>
       <c r="K3">
-        <v>1.051893690745512</v>
+        <v>1.049892779454464</v>
       </c>
       <c r="L3">
-        <v>1.046153703734582</v>
+        <v>1.045051037118412</v>
       </c>
       <c r="M3">
-        <v>1.057302910990734</v>
+        <v>1.056023727004936</v>
       </c>
       <c r="N3">
-        <v>1.017983517360446</v>
+        <v>1.018099937575163</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053923678331164</v>
+        <v>1.052911307697542</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047760915763132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046354536017292</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02514498484416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024705538351673</v>
+        <v>1.023433449570215</v>
       </c>
       <c r="D4">
-        <v>1.043143963664946</v>
+        <v>1.04103213248712</v>
       </c>
       <c r="E4">
-        <v>1.037508426338688</v>
+        <v>1.036335155869837</v>
       </c>
       <c r="F4">
-        <v>1.048724592322061</v>
+        <v>1.047370572518103</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054187660174944</v>
+        <v>1.053227732592237</v>
       </c>
       <c r="J4">
-        <v>1.043497712579077</v>
+        <v>1.042256143689072</v>
       </c>
       <c r="K4">
-        <v>1.052748137498536</v>
+        <v>1.050659327784979</v>
       </c>
       <c r="L4">
-        <v>1.04717429058085</v>
+        <v>1.046013967240223</v>
       </c>
       <c r="M4">
-        <v>1.058268477544188</v>
+        <v>1.056929013123148</v>
       </c>
       <c r="N4">
-        <v>1.018297284356547</v>
+        <v>1.018331867295402</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054687845242634</v>
+        <v>1.053627768559129</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048365954549534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04689750854867</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025286934798449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025551726786512</v>
+        <v>1.024253417258749</v>
       </c>
       <c r="D5">
-        <v>1.043722030306871</v>
+        <v>1.041573740595403</v>
       </c>
       <c r="E5">
-        <v>1.038157315315369</v>
+        <v>1.036960086751646</v>
       </c>
       <c r="F5">
-        <v>1.049347155095675</v>
+        <v>1.047968113208925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054369401470179</v>
+        <v>1.053391002932421</v>
       </c>
       <c r="J5">
-        <v>1.043885504827645</v>
+        <v>1.042617433626011</v>
       </c>
       <c r="K5">
-        <v>1.053107815466706</v>
+        <v>1.050982333308189</v>
       </c>
       <c r="L5">
-        <v>1.047602417053451</v>
+        <v>1.046418052220242</v>
       </c>
       <c r="M5">
-        <v>1.05867376106861</v>
+        <v>1.057309155565366</v>
       </c>
       <c r="N5">
-        <v>1.018429120565192</v>
+        <v>1.018429375258947</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055008593757043</v>
+        <v>1.053928620403446</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048627359292829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047133694714725</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025346689779815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025696684929568</v>
+        <v>1.024393883290261</v>
       </c>
       <c r="D6">
-        <v>1.043823468601274</v>
+        <v>1.04166899451147</v>
       </c>
       <c r="E6">
-        <v>1.038269102479078</v>
+        <v>1.037067772934653</v>
       </c>
       <c r="F6">
-        <v>1.049454639199896</v>
+        <v>1.048071331509507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054402144347041</v>
+        <v>1.053420593276776</v>
       </c>
       <c r="J6">
-        <v>1.043953625647472</v>
+        <v>1.042681014284176</v>
       </c>
       <c r="K6">
-        <v>1.053172570583281</v>
+        <v>1.051040866933536</v>
       </c>
       <c r="L6">
-        <v>1.047677143421291</v>
+        <v>1.046488663238379</v>
       </c>
       <c r="M6">
-        <v>1.058744765092982</v>
+        <v>1.057375873263451</v>
       </c>
       <c r="N6">
-        <v>1.018452570555006</v>
+        <v>1.018446763251402</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055064787577689</v>
+        <v>1.053981422026197</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04868178957355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047184594368747</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025358055525645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024725723053551</v>
+        <v>1.023459269116713</v>
       </c>
       <c r="D7">
-        <v>1.043164047426961</v>
+        <v>1.041056131494223</v>
       </c>
       <c r="E7">
-        <v>1.037525380500844</v>
+        <v>1.036356798974188</v>
       </c>
       <c r="F7">
-        <v>1.048741453868111</v>
+        <v>1.047391213806619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054196573993835</v>
+        <v>1.053239338072806</v>
       </c>
       <c r="J7">
-        <v>1.043511546433251</v>
+        <v>1.042275464317686</v>
       </c>
       <c r="K7">
-        <v>1.052765166677896</v>
+        <v>1.050680220698509</v>
       </c>
       <c r="L7">
-        <v>1.047188201197685</v>
+        <v>1.046032510174825</v>
       </c>
       <c r="M7">
-        <v>1.058282341933382</v>
+        <v>1.056946611170506</v>
       </c>
       <c r="N7">
-        <v>1.018302780006815</v>
+        <v>1.018363395492457</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054698817766501</v>
+        <v>1.053641695985852</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048397876511315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04693416007292</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025292909885566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020598560636938</v>
+        <v>1.019473993517982</v>
       </c>
       <c r="D8">
-        <v>1.040363617262428</v>
+        <v>1.038444037743997</v>
       </c>
       <c r="E8">
-        <v>1.034374192703131</v>
+        <v>1.033334186865759</v>
       </c>
       <c r="F8">
-        <v>1.04571998734425</v>
+        <v>1.04450152540408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053304862176332</v>
+        <v>1.05244450024461</v>
       </c>
       <c r="J8">
-        <v>1.041625660426162</v>
+        <v>1.040531992556128</v>
       </c>
       <c r="K8">
-        <v>1.051023246244645</v>
+        <v>1.049127272176988</v>
       </c>
       <c r="L8">
-        <v>1.045107835824393</v>
+        <v>1.044080790769094</v>
       </c>
       <c r="M8">
-        <v>1.056314317284819</v>
+        <v>1.055110636393414</v>
       </c>
       <c r="N8">
-        <v>1.017662999058508</v>
+        <v>1.0179463882985</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053141286513302</v>
+        <v>1.052188669519989</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047170734391383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045841092802581</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02500515822241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013070637609747</v>
+        <v>1.012188492410445</v>
       </c>
       <c r="D9">
-        <v>1.035279601308442</v>
+        <v>1.033690559469387</v>
       </c>
       <c r="E9">
-        <v>1.028669535550087</v>
+        <v>1.0278499323804</v>
       </c>
       <c r="F9">
-        <v>1.040252943899776</v>
+        <v>1.039263182107214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0516205649718</v>
+        <v>1.050927693732831</v>
       </c>
       <c r="J9">
-        <v>1.038170133173185</v>
+        <v>1.037318065415231</v>
       </c>
       <c r="K9">
-        <v>1.047825096658692</v>
+        <v>1.046259696144321</v>
       </c>
       <c r="L9">
-        <v>1.041313984928988</v>
+        <v>1.040506764359171</v>
       </c>
       <c r="M9">
-        <v>1.052725039819162</v>
+        <v>1.05174981439802</v>
       </c>
       <c r="N9">
-        <v>1.01648930197957</v>
+        <v>1.017089688754045</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050300657382059</v>
+        <v>1.049528841758879</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044906342837492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04381014733067</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024452488804069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007924200758572</v>
+        <v>1.007236506829469</v>
       </c>
       <c r="D10">
-        <v>1.03184705826324</v>
+        <v>1.030503875771262</v>
       </c>
       <c r="E10">
-        <v>1.024823367409405</v>
+        <v>1.024177963369174</v>
       </c>
       <c r="F10">
-        <v>1.036600664290554</v>
+        <v>1.035786564788473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050456495533397</v>
+        <v>1.049891114065435</v>
       </c>
       <c r="J10">
-        <v>1.035826911373791</v>
+        <v>1.035165925390187</v>
       </c>
       <c r="K10">
-        <v>1.045664164975307</v>
+        <v>1.04434338162614</v>
       </c>
       <c r="L10">
-        <v>1.03875844029583</v>
+        <v>1.038123980895855</v>
       </c>
       <c r="M10">
-        <v>1.050339098777203</v>
+        <v>1.04953840669956</v>
       </c>
       <c r="N10">
-        <v>1.015697230694706</v>
+        <v>1.016628880289792</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048463190487887</v>
+        <v>1.04782954161646</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043395094427501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042473528554732</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024079838050748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006016019311869</v>
+        <v>1.00542412624158</v>
       </c>
       <c r="D11">
-        <v>1.030720423808847</v>
+        <v>1.029478511551164</v>
       </c>
       <c r="E11">
-        <v>1.023575553673124</v>
+        <v>1.023012184667249</v>
       </c>
       <c r="F11">
-        <v>1.035664162451965</v>
+        <v>1.034928471218754</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050170578100109</v>
+        <v>1.049659981695274</v>
       </c>
       <c r="J11">
-        <v>1.035140648925732</v>
+        <v>1.034572983293362</v>
       </c>
       <c r="K11">
-        <v>1.045085355589416</v>
+        <v>1.043865124990583</v>
       </c>
       <c r="L11">
-        <v>1.038066156015192</v>
+        <v>1.037512792955309</v>
       </c>
       <c r="M11">
-        <v>1.049943451571516</v>
+        <v>1.049220438038338</v>
       </c>
       <c r="N11">
-        <v>1.015496289157191</v>
+        <v>1.016718824688139</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048581264555257</v>
+        <v>1.048009369942163</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043018353749113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042171094543792</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024027750614395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005432155675791</v>
+        <v>1.004866177522215</v>
       </c>
       <c r="D12">
-        <v>1.030432398734685</v>
+        <v>1.029215395475086</v>
       </c>
       <c r="E12">
-        <v>1.023268229531071</v>
+        <v>1.022725760617066</v>
       </c>
       <c r="F12">
-        <v>1.035554922332926</v>
+        <v>1.034839276199612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050146079154201</v>
+        <v>1.049648362919332</v>
       </c>
       <c r="J12">
-        <v>1.03500838300828</v>
+        <v>1.034466010314984</v>
       </c>
       <c r="K12">
-        <v>1.044998898527317</v>
+        <v>1.043803491910587</v>
       </c>
       <c r="L12">
-        <v>1.037962823463711</v>
+        <v>1.037430148829761</v>
       </c>
       <c r="M12">
-        <v>1.050031239937029</v>
+        <v>1.049328123262222</v>
       </c>
       <c r="N12">
-        <v>1.015476233256455</v>
+        <v>1.016808360843565</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048973677738555</v>
+        <v>1.048417705691543</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042957227030074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042127519636893</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024044968990186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005839979993952</v>
+        <v>1.005238522409916</v>
       </c>
       <c r="D13">
-        <v>1.030786403811883</v>
+        <v>1.029530072342055</v>
       </c>
       <c r="E13">
-        <v>1.023675588597991</v>
+        <v>1.023100685094063</v>
       </c>
       <c r="F13">
-        <v>1.036093588496957</v>
+        <v>1.035347942791371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050333706395289</v>
+        <v>1.049812955643053</v>
       </c>
       <c r="J13">
-        <v>1.035307496390686</v>
+        <v>1.034731004816622</v>
       </c>
       <c r="K13">
-        <v>1.045304497208834</v>
+        <v>1.044070367306961</v>
       </c>
       <c r="L13">
-        <v>1.038320276272926</v>
+        <v>1.037755707729452</v>
       </c>
       <c r="M13">
-        <v>1.050518663888149</v>
+        <v>1.04978601241066</v>
       </c>
       <c r="N13">
-        <v>1.015599820684068</v>
+        <v>1.016872428249287</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049633183513316</v>
+        <v>1.04905400064405</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043170825144216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042313493772449</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024121376381438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006576493550409</v>
+        <v>1.005922869619163</v>
       </c>
       <c r="D14">
-        <v>1.03132736209248</v>
+        <v>1.030014803161042</v>
       </c>
       <c r="E14">
-        <v>1.024285768115951</v>
+        <v>1.023664522809747</v>
       </c>
       <c r="F14">
-        <v>1.036765701026563</v>
+        <v>1.035976796550854</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050561918920676</v>
+        <v>1.050009143565469</v>
       </c>
       <c r="J14">
-        <v>1.03571348605397</v>
+        <v>1.03508661447944</v>
       </c>
       <c r="K14">
-        <v>1.045697949526877</v>
+        <v>1.044408302495631</v>
       </c>
       <c r="L14">
-        <v>1.038780164916991</v>
+        <v>1.038169948811171</v>
       </c>
       <c r="M14">
-        <v>1.051042156484612</v>
+        <v>1.050266827878011</v>
       </c>
       <c r="N14">
-        <v>1.015751927955074</v>
+        <v>1.016907342002324</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050218919798865</v>
+        <v>1.049606081069857</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043450412392862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042553963588863</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024202404821214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00697585813572</v>
+        <v>1.006296577804671</v>
       </c>
       <c r="D15">
-        <v>1.031605745429418</v>
+        <v>1.030265687557798</v>
       </c>
       <c r="E15">
-        <v>1.024596491464824</v>
+        <v>1.023952725297439</v>
       </c>
       <c r="F15">
-        <v>1.037081512954652</v>
+        <v>1.036271442693777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050667739157926</v>
+        <v>1.050099556129023</v>
       </c>
       <c r="J15">
-        <v>1.035911934274168</v>
+        <v>1.035260218959233</v>
       </c>
       <c r="K15">
-        <v>1.045886503435648</v>
+        <v>1.044569662898142</v>
       </c>
       <c r="L15">
-        <v>1.038999560178017</v>
+        <v>1.038367136517543</v>
       </c>
       <c r="M15">
-        <v>1.051268205255857</v>
+        <v>1.050471969874327</v>
       </c>
       <c r="N15">
-        <v>1.015822451261929</v>
+        <v>1.016914849437573</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050434850043435</v>
+        <v>1.049805502505094</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043589530523551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042674424422482</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024237368342121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00907362905567</v>
+        <v>1.008277243730708</v>
       </c>
       <c r="D16">
-        <v>1.032994229358813</v>
+        <v>1.031526636747494</v>
       </c>
       <c r="E16">
-        <v>1.026147461564713</v>
+        <v>1.025401763418021</v>
       </c>
       <c r="F16">
-        <v>1.038544964531249</v>
+        <v>1.037637700698442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05113921142848</v>
+        <v>1.050501383609318</v>
       </c>
       <c r="J16">
-        <v>1.03685616552866</v>
+        <v>1.036090516121921</v>
       </c>
       <c r="K16">
-        <v>1.046757258934663</v>
+        <v>1.045314002844987</v>
       </c>
       <c r="L16">
-        <v>1.040024796022982</v>
+        <v>1.039291666005804</v>
       </c>
       <c r="M16">
-        <v>1.05221674782834</v>
+        <v>1.0513243123425</v>
       </c>
       <c r="N16">
-        <v>1.016137656492337</v>
+        <v>1.016929454925214</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051146153231094</v>
+        <v>1.050440748981082</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044208306973163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04320412273007</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024378346981431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010299143650114</v>
+        <v>1.009447236298255</v>
       </c>
       <c r="D17">
-        <v>1.033777424652705</v>
+        <v>1.0322466226856</v>
       </c>
       <c r="E17">
-        <v>1.027019105751405</v>
+        <v>1.026225171075016</v>
       </c>
       <c r="F17">
-        <v>1.039313034001979</v>
+        <v>1.038358618881214</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051379196355742</v>
+        <v>1.050707970755854</v>
       </c>
       <c r="J17">
-        <v>1.037367214284132</v>
+        <v>1.036547150234751</v>
       </c>
       <c r="K17">
-        <v>1.047218045117553</v>
+        <v>1.045711927045234</v>
       </c>
       <c r="L17">
-        <v>1.040569415869464</v>
+        <v>1.039788488932934</v>
       </c>
       <c r="M17">
-        <v>1.052665171275727</v>
+        <v>1.051725925627276</v>
       </c>
       <c r="N17">
-        <v>1.016299460218749</v>
+        <v>1.016950714407833</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051372590165289</v>
+        <v>1.050630113006058</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044536654654526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04348827374621</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02444452618469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010879043268504</v>
+        <v>1.01001139480044</v>
       </c>
       <c r="D18">
-        <v>1.034093549539817</v>
+        <v>1.032543526994659</v>
       </c>
       <c r="E18">
-        <v>1.027367697974527</v>
+        <v>1.026560618867488</v>
       </c>
       <c r="F18">
-        <v>1.039520327160484</v>
+        <v>1.038552043552996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05143209996865</v>
+        <v>1.050751830963563</v>
       </c>
       <c r="J18">
-        <v>1.03753726130668</v>
+        <v>1.036701446990112</v>
       </c>
       <c r="K18">
-        <v>1.047348636718786</v>
+        <v>1.045823204799634</v>
       </c>
       <c r="L18">
-        <v>1.040730178409826</v>
+        <v>1.039936107482624</v>
       </c>
       <c r="M18">
-        <v>1.052690059078937</v>
+        <v>1.051736921530269</v>
       </c>
       <c r="N18">
-        <v>1.016337888745631</v>
+        <v>1.016937898918443</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051156719494626</v>
+        <v>1.050403106268799</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044617476996425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.0435543062265</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024444919337822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010886643829894</v>
+        <v>1.01003343171658</v>
       </c>
       <c r="D19">
-        <v>1.034004405449526</v>
+        <v>1.032470628218142</v>
       </c>
       <c r="E19">
-        <v>1.027252537167526</v>
+        <v>1.026459179424889</v>
       </c>
       <c r="F19">
-        <v>1.039229554166998</v>
+        <v>1.038273468494613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05132727039291</v>
+        <v>1.050657070466539</v>
       </c>
       <c r="J19">
-        <v>1.037412321452138</v>
+        <v>1.03659022999426</v>
       </c>
       <c r="K19">
-        <v>1.047199365014885</v>
+        <v>1.045689796145548</v>
       </c>
       <c r="L19">
-        <v>1.040554758930973</v>
+        <v>1.039774123532082</v>
       </c>
       <c r="M19">
-        <v>1.052342728146763</v>
+        <v>1.051401528754524</v>
       </c>
       <c r="N19">
-        <v>1.016272265772832</v>
+        <v>1.016880045249441</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050559932328053</v>
+        <v>1.049815519776656</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044518264462408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043466934043665</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024391351005714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009278708004957</v>
+        <v>1.00852188031876</v>
       </c>
       <c r="D20">
-        <v>1.032765008784697</v>
+        <v>1.031344135403283</v>
       </c>
       <c r="E20">
-        <v>1.02583845641052</v>
+        <v>1.025132092767354</v>
       </c>
       <c r="F20">
-        <v>1.037567347243739</v>
+        <v>1.036694634997873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050777323180585</v>
+        <v>1.05016948873202</v>
       </c>
       <c r="J20">
-        <v>1.03645657796234</v>
+        <v>1.035728204691814</v>
       </c>
       <c r="K20">
-        <v>1.046255194459172</v>
+        <v>1.044857352096554</v>
       </c>
       <c r="L20">
-        <v>1.039441690063672</v>
+        <v>1.03874696539236</v>
       </c>
       <c r="M20">
-        <v>1.05098029013158</v>
+        <v>1.050121546715231</v>
       </c>
       <c r="N20">
-        <v>1.015912559438202</v>
+        <v>1.016683828911751</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048960196163088</v>
+        <v>1.048280598766049</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043854590197129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042882642615935</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024182912451047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005358025167147</v>
+        <v>1.004839191553701</v>
       </c>
       <c r="D21">
-        <v>1.030129476908229</v>
+        <v>1.02896404040347</v>
       </c>
       <c r="E21">
-        <v>1.02288657187579</v>
+        <v>1.022389028428859</v>
       </c>
       <c r="F21">
-        <v>1.034716639757217</v>
+        <v>1.034040848244615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049848714277134</v>
+        <v>1.049383509808456</v>
       </c>
       <c r="J21">
-        <v>1.034633425175978</v>
+        <v>1.034135972276548</v>
       </c>
       <c r="K21">
-        <v>1.044561668930575</v>
+        <v>1.043416700189269</v>
       </c>
       <c r="L21">
-        <v>1.037446947416046</v>
+        <v>1.036958295970629</v>
       </c>
       <c r="M21">
-        <v>1.049068850160357</v>
+        <v>1.048404784039165</v>
       </c>
       <c r="N21">
-        <v>1.015290460539757</v>
+        <v>1.016667499927338</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047407061434969</v>
+        <v>1.046881502410905</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042660417164784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041867583519102</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023899002948745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002865187072985</v>
+        <v>1.00249613065335</v>
       </c>
       <c r="D22">
-        <v>1.028461787492172</v>
+        <v>1.027457208969867</v>
       </c>
       <c r="E22">
-        <v>1.021025967837069</v>
+        <v>1.02065992979351</v>
       </c>
       <c r="F22">
-        <v>1.032935485467636</v>
+        <v>1.03238383028772</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049256663812412</v>
+        <v>1.048881330770809</v>
       </c>
       <c r="J22">
-        <v>1.03348013714052</v>
+        <v>1.033127155508772</v>
       </c>
       <c r="K22">
-        <v>1.04348973862406</v>
+        <v>1.042503675403296</v>
       </c>
       <c r="L22">
-        <v>1.036192095172217</v>
+        <v>1.035832926935275</v>
       </c>
       <c r="M22">
-        <v>1.04788155129694</v>
+        <v>1.047339943532985</v>
       </c>
       <c r="N22">
-        <v>1.014897714308765</v>
+        <v>1.01665119968127</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046467402284878</v>
+        <v>1.046038759439135</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041889163629133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041207379430229</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023717958093088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004182268358767</v>
+        <v>1.003723899058691</v>
       </c>
       <c r="D23">
-        <v>1.029336819827256</v>
+        <v>1.028239476784309</v>
       </c>
       <c r="E23">
-        <v>1.022006761187322</v>
+        <v>1.021562610591584</v>
       </c>
       <c r="F23">
-        <v>1.033873943284338</v>
+        <v>1.033249520627633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049566086679166</v>
+        <v>1.049138096872157</v>
       </c>
       <c r="J23">
-        <v>1.034085382559831</v>
+        <v>1.033646405119435</v>
       </c>
       <c r="K23">
-        <v>1.044048790195085</v>
+        <v>1.042971165714673</v>
       </c>
       <c r="L23">
-        <v>1.036851493905617</v>
+        <v>1.036415467499679</v>
       </c>
       <c r="M23">
-        <v>1.048504960893634</v>
+        <v>1.047891624630423</v>
       </c>
       <c r="N23">
-        <v>1.015102965766127</v>
+        <v>1.016615702246365</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046960784976454</v>
+        <v>1.046475374587599</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042274894633458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041527432115852</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023808564680968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009295631395956</v>
+        <v>1.00853969977046</v>
       </c>
       <c r="D24">
-        <v>1.032754412665628</v>
+        <v>1.031334400954783</v>
       </c>
       <c r="E24">
-        <v>1.025832164736874</v>
+        <v>1.025126732369447</v>
       </c>
       <c r="F24">
-        <v>1.037536117910466</v>
+        <v>1.036664135172814</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050760545554097</v>
+        <v>1.050153419324809</v>
       </c>
       <c r="J24">
-        <v>1.036440490171912</v>
+        <v>1.035712938077884</v>
       </c>
       <c r="K24">
-        <v>1.046229745079158</v>
+        <v>1.044832721597919</v>
       </c>
       <c r="L24">
-        <v>1.039420332812042</v>
+        <v>1.038726509364308</v>
       </c>
       <c r="M24">
-        <v>1.050934633599762</v>
+        <v>1.050076591274509</v>
       </c>
       <c r="N24">
-        <v>1.015903079958377</v>
+        <v>1.016672850685198</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048883688483968</v>
+        <v>1.048204612982407</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043809481874474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042835441036141</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02417238113738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015060781418382</v>
+        <v>1.014106213402738</v>
       </c>
       <c r="D25">
-        <v>1.036629208559394</v>
+        <v>1.034946937189777</v>
       </c>
       <c r="E25">
-        <v>1.03017463470521</v>
+        <v>1.029289812762655</v>
       </c>
       <c r="F25">
-        <v>1.041695701155092</v>
+        <v>1.040639812018063</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052078663673896</v>
+        <v>1.051337532776333</v>
       </c>
       <c r="J25">
-        <v>1.039091707562033</v>
+        <v>1.03816799752659</v>
       </c>
       <c r="K25">
-        <v>1.048684320423724</v>
+        <v>1.047025930931244</v>
       </c>
       <c r="L25">
-        <v>1.04232191467949</v>
+        <v>1.041449841693875</v>
       </c>
       <c r="M25">
-        <v>1.053679476421483</v>
+        <v>1.052638381917483</v>
       </c>
       <c r="N25">
-        <v>1.016803698679768</v>
+        <v>1.017287071943612</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051056019487956</v>
+        <v>1.050232074376102</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045542126816434</v>
+        <v>1.044382988260528</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024603747794703</v>
       </c>
     </row>
   </sheetData>
